--- a/gaza_nutrition/inputs/Literature on calorie reduction_Extraction 01-15.xlsx
+++ b/gaza_nutrition/inputs/Literature on calorie reduction_Extraction 01-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchec\Desktop\work\gaza\gaza_nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F705857-F268-4ED9-A225-0BF0B7EEE31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B994274-C14A-4001-A8FE-25DE05893FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2636,18 +2636,12 @@
     <t>bmi_baseline</t>
   </si>
   <si>
-    <t>age_mid</t>
-  </si>
-  <si>
     <t>intake_baseline</t>
   </si>
   <si>
     <t>intake_famine</t>
   </si>
   <si>
-    <t>months_fup</t>
-  </si>
-  <si>
     <t>percent_wt_loss</t>
   </si>
   <si>
@@ -2808,6 +2802,12 @@
   </si>
   <si>
     <t>Uusi-Rasi et al. (C)</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
 </sst>
 </file>
@@ -6332,28 +6332,28 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="166" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="166" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" style="166" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="166" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" style="166" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="66" style="166" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="166" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="166" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="165"/>
+    <col min="7" max="7" width="7.42578125" style="166" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="165" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" style="168" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" style="169" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="169" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="169" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="169" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="170" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="169" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="169" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="170" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.140625" style="170" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.7109375" style="170" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="166" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" style="166" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.85546875" style="166" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="166"/>
   </cols>
@@ -6375,37 +6375,37 @@
         <v>466</v>
       </c>
       <c r="F1" s="166" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G1" s="166" t="s">
         <v>116</v>
       </c>
       <c r="H1" s="166" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="I1" s="168" t="s">
         <v>488</v>
       </c>
       <c r="J1" s="169" t="s">
+        <v>489</v>
+      </c>
+      <c r="K1" s="169" t="s">
         <v>490</v>
       </c>
-      <c r="K1" s="169" t="s">
+      <c r="L1" s="169" t="s">
+        <v>492</v>
+      </c>
+      <c r="M1" s="169" t="s">
+        <v>546</v>
+      </c>
+      <c r="N1" s="170" t="s">
         <v>491</v>
       </c>
-      <c r="L1" s="169" t="s">
+      <c r="O1" s="170" t="s">
         <v>494</v>
       </c>
-      <c r="M1" s="169" t="s">
-        <v>492</v>
-      </c>
-      <c r="N1" s="170" t="s">
-        <v>493</v>
-      </c>
-      <c r="O1" s="170" t="s">
-        <v>496</v>
-      </c>
       <c r="P1" s="170" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q1" s="166" t="s">
         <v>486</v>
@@ -6422,7 +6422,7 @@
         <v>463</v>
       </c>
       <c r="C2" s="166" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F2" s="166">
         <v>13</v>
@@ -6466,7 +6466,7 @@
         <v>463</v>
       </c>
       <c r="C3" s="166" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F3" s="166">
         <v>78</v>
@@ -6510,7 +6510,7 @@
         <v>463</v>
       </c>
       <c r="C4" s="166" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D4" s="166" t="s">
         <v>29</v>
@@ -6545,7 +6545,7 @@
         <v>463</v>
       </c>
       <c r="C5" s="166" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D5" s="166" t="s">
         <v>29</v>
@@ -6580,7 +6580,7 @@
         <v>463</v>
       </c>
       <c r="C6" s="166" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F6" s="166">
         <v>144</v>
@@ -6624,7 +6624,7 @@
         <v>463</v>
       </c>
       <c r="C7" s="166" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E7" s="166" t="s">
         <v>64</v>
@@ -6671,7 +6671,7 @@
         <v>463</v>
       </c>
       <c r="C8" s="166" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F8" s="166">
         <v>38</v>
@@ -6715,7 +6715,7 @@
         <v>463</v>
       </c>
       <c r="C9" s="166" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E9" s="166" t="s">
         <v>469</v>
@@ -6762,7 +6762,7 @@
         <v>463</v>
       </c>
       <c r="C10" s="166" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E10" s="166" t="s">
         <v>479</v>
@@ -6809,7 +6809,7 @@
         <v>463</v>
       </c>
       <c r="C11" s="166" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F11" s="166">
         <v>40</v>
@@ -6853,7 +6853,7 @@
         <v>463</v>
       </c>
       <c r="C12" s="166" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F12" s="166">
         <v>91</v>
@@ -6897,7 +6897,7 @@
         <v>463</v>
       </c>
       <c r="C13" s="166" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F13" s="166">
         <v>13</v>
@@ -6941,7 +6941,7 @@
         <v>463</v>
       </c>
       <c r="C14" s="166" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F14" s="166">
         <v>45</v>
@@ -6985,7 +6985,7 @@
         <v>463</v>
       </c>
       <c r="C15" s="166" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F15" s="166">
         <v>28</v>
@@ -7029,7 +7029,7 @@
         <v>463</v>
       </c>
       <c r="C16" s="166" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F16" s="166">
         <v>5</v>
@@ -7073,7 +7073,7 @@
         <v>463</v>
       </c>
       <c r="C17" s="166" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F17" s="166">
         <v>16</v>
@@ -7117,7 +7117,7 @@
         <v>463</v>
       </c>
       <c r="C18" s="166" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F18" s="166">
         <v>11</v>
@@ -7161,7 +7161,7 @@
         <v>463</v>
       </c>
       <c r="C19" s="166" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E19" s="166" t="s">
         <v>474</v>
@@ -7205,7 +7205,7 @@
         <v>463</v>
       </c>
       <c r="C20" s="166" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F20" s="166">
         <v>12</v>
@@ -7246,7 +7246,7 @@
         <v>462</v>
       </c>
       <c r="C21" s="166" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D21" s="166" t="s">
         <v>14</v>
@@ -7278,7 +7278,7 @@
         <v>462</v>
       </c>
       <c r="C22" s="166" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D22" s="166" t="s">
         <v>16</v>
@@ -7313,7 +7313,7 @@
         <v>463</v>
       </c>
       <c r="C23" s="166" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F23" s="166">
         <v>58</v>
@@ -7357,7 +7357,7 @@
         <v>462</v>
       </c>
       <c r="C24" s="166" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D24" s="166" t="s">
         <v>22</v>
@@ -7380,7 +7380,7 @@
         <v>462</v>
       </c>
       <c r="C25" s="166" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D25" s="166" t="s">
         <v>12</v>
@@ -7415,7 +7415,7 @@
         <v>463</v>
       </c>
       <c r="C26" s="166" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D26" s="166" t="s">
         <v>480</v>
@@ -7453,7 +7453,7 @@
         <v>462</v>
       </c>
       <c r="C27" s="166" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D27" s="166" t="s">
         <v>24</v>
@@ -7479,7 +7479,7 @@
         <v>462</v>
       </c>
       <c r="C28" s="166" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D28" s="166" t="s">
         <v>26</v>
@@ -7511,7 +7511,7 @@
         <v>463</v>
       </c>
       <c r="C29" s="166" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F29" s="166">
         <v>60</v>
@@ -7555,7 +7555,7 @@
         <v>463</v>
       </c>
       <c r="C30" s="166" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F30" s="166">
         <v>38</v>
@@ -7599,7 +7599,7 @@
         <v>463</v>
       </c>
       <c r="C31" s="166" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E31" s="166" t="s">
         <v>475</v>
@@ -7646,7 +7646,7 @@
         <v>463</v>
       </c>
       <c r="C32" s="166" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E32" s="166" t="s">
         <v>473</v>
@@ -7693,7 +7693,7 @@
         <v>463</v>
       </c>
       <c r="C33" s="166" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F33" s="166">
         <v>10</v>
@@ -7731,7 +7731,7 @@
         <v>463</v>
       </c>
       <c r="C34" s="166" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F34" s="166">
         <v>10</v>
@@ -7769,7 +7769,7 @@
         <v>463</v>
       </c>
       <c r="C35" s="166" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F35" s="166">
         <v>506</v>
@@ -7845,7 +7845,7 @@
         <v>463</v>
       </c>
       <c r="C37" s="166" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F37" s="166">
         <v>24</v>
@@ -7889,7 +7889,7 @@
         <v>463</v>
       </c>
       <c r="C38" s="166" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F38" s="166">
         <v>19</v>
@@ -7933,7 +7933,7 @@
         <v>463</v>
       </c>
       <c r="C39" s="166" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E39" s="166" t="s">
         <v>470</v>
@@ -7977,7 +7977,7 @@
         <v>463</v>
       </c>
       <c r="C40" s="166" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E40" s="166" t="s">
         <v>476</v>
@@ -8021,7 +8021,7 @@
         <v>463</v>
       </c>
       <c r="C41" s="166" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F41" s="166">
         <v>34</v>
@@ -8065,7 +8065,7 @@
         <v>463</v>
       </c>
       <c r="C42" s="166" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E42" s="166" t="s">
         <v>468</v>
@@ -8112,7 +8112,7 @@
         <v>463</v>
       </c>
       <c r="C43" s="166" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E43" s="166" t="s">
         <v>472</v>
@@ -8159,7 +8159,7 @@
         <v>463</v>
       </c>
       <c r="C44" s="166" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E44" s="166" t="s">
         <v>478</v>
@@ -8206,7 +8206,7 @@
         <v>463</v>
       </c>
       <c r="C45" s="166" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F45" s="166">
         <v>186</v>
@@ -8250,7 +8250,7 @@
         <v>463</v>
       </c>
       <c r="C46" s="166" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F46" s="166">
         <v>32</v>
@@ -8294,7 +8294,7 @@
         <v>463</v>
       </c>
       <c r="C47" s="166" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F47" s="166">
         <v>90</v>
@@ -8335,7 +8335,7 @@
         <v>463</v>
       </c>
       <c r="C48" s="166" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F48" s="166">
         <v>98</v>
@@ -8379,7 +8379,7 @@
         <v>463</v>
       </c>
       <c r="C49" s="166" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E49" s="166" t="s">
         <v>471</v>
@@ -8426,7 +8426,7 @@
         <v>463</v>
       </c>
       <c r="C50" s="166" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E50" s="166" t="s">
         <v>477</v>
@@ -8473,7 +8473,7 @@
         <v>463</v>
       </c>
       <c r="C51" s="166" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F51" s="166">
         <v>20</v>
@@ -8517,7 +8517,7 @@
         <v>463</v>
       </c>
       <c r="C52" s="166" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F52" s="166">
         <v>15</v>
@@ -8561,7 +8561,7 @@
         <v>462</v>
       </c>
       <c r="C53" s="166" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D53" s="166" t="s">
         <v>20</v>
@@ -13154,14 +13154,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Visibility xmlns="6a164dda-3779-4169-b957-e287451f6523">Internal</Visibility>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF0DACDCAE436E44A93D1320B0E08CE3" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a599b70546ae31675225ac0690c6085c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a164dda-3779-4169-b957-e287451f6523" xmlns:ns3="790fec47-3702-4ac6-96c4-67ae7c83b848" xmlns:ns4="1f040d83-acda-4733-88dd-a3ffb180d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a90be409742a0cf8817b7e25a535b1d" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6a164dda-3779-4169-b957-e287451f6523"/>
@@ -13346,12 +13338,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="8207403b-203c-4ed3-95cd-88a852189123" ContentTypeId="0x01" PreviousValue="false"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Visibility xmlns="6a164dda-3779-4169-b957-e287451f6523">Internal</Visibility>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13360,17 +13355,12 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{029DA486-4B5B-4F99-8AD6-FFD6F4D1896B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6a164dda-3779-4169-b957-e287451f6523"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="8207403b-203c-4ed3-95cd-88a852189123" ContentTypeId="0x01" PreviousValue="false"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A284A1E-1756-40D6-880A-0139AA35A4C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13390,18 +13380,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{029DA486-4B5B-4F99-8AD6-FFD6F4D1896B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6a164dda-3779-4169-b957-e287451f6523"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E37FE1D-251C-4263-9A67-8E9AE906DBAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C39DF81E-B37D-4C95-A63A-33E105A2507B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E37FE1D-251C-4263-9A67-8E9AE906DBAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>